--- a/Test Data/Accounts.xlsx
+++ b/Test Data/Accounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDFABDF-515E-4EA3-97AA-B6CFEC5C51EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C710D4D6-F768-46CC-858B-0087111E4A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{66599CB7-464D-4AD4-B81D-0D79C9E481C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{66599CB7-464D-4AD4-B81D-0D79C9E481C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="325">
   <si>
     <t>f</t>
   </si>
@@ -1017,6 +1017,9 @@
   </si>
   <si>
     <t>Video Check</t>
+  </si>
+  <si>
+    <t>Type 1 For Done</t>
   </si>
 </sst>
 </file>
@@ -4030,7 +4033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60B67E9-5F5A-4821-8AE4-71F8DBA0DE45}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -4564,8 +4567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608967BC-2A46-4B5A-8EFB-E0F8203E73FA}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4664,7 +4667,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:3">
